--- a/Grid_5x5/Solutions/Solution_NDP_S069/Spreadsheet/VIS17_PuTAss_CapaRestYes_TI_10min_v02.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S069/Spreadsheet/VIS17_PuTAss_CapaRestYes_TI_10min_v02.xlsx
@@ -738,7 +738,7 @@
     <t>sum of costs for fuel, repair, etc. depending on kilometric performance</t>
   </si>
   <si>
-    <t>23.10.2018 12:58:13</t>
+    <t>30.10.2018 12:25:39</t>
   </si>
   <si>
     <t>02_Grid</t>
@@ -753,7 +753,7 @@
     <t xml:space="preserve"> Using an integrated model for timetabling</t>
   </si>
   <si>
-    <t>02_Grid_N01_S01_V010_VISUM17_EN_A_3r_7_1_3_1.ver</t>
+    <t>02_Grid_N01_S01_V011_VISUM17_EN_A_3r_7_1_3_1.ver</t>
   </si>
   <si>
     <t>02_Grid_Linien_A_3r_7_1_3_1.net</t>
@@ -1629,8 +1629,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190178</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403590</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1651,7 +1651,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12700"/>
-          <a:ext cx="6762428" cy="4749800"/>
+          <a:ext cx="5737590" cy="4749800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1668,8 +1668,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190178</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403590</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1690,7 +1690,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4965700"/>
-          <a:ext cx="6762428" cy="4749800"/>
+          <a:ext cx="5737590" cy="4749800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1707,8 +1707,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190178</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403590</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1729,7 +1729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9918700"/>
-          <a:ext cx="6762428" cy="4749800"/>
+          <a:ext cx="5737590" cy="4749800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2673,7 +2673,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>20.938367106996751</v>
+        <v>22.115334284459077</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2693,7 +2693,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.26180437329382295</v>
+        <v>0.26180437329382289</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>

--- a/Grid_5x5/Solutions/Solution_NDP_S069/Spreadsheet/VIS17_PuTAss_CapaRestYes_TI_10min_v02.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S069/Spreadsheet/VIS17_PuTAss_CapaRestYes_TI_10min_v02.xlsx
@@ -2693,7 +2693,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.26180437329382289</v>
+        <v>0.26180437329382295</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>

--- a/Grid_5x5/Solutions/Solution_NDP_S069/Spreadsheet/VIS17_PuTAss_CapaRestYes_TI_10min_v02.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S069/Spreadsheet/VIS17_PuTAss_CapaRestYes_TI_10min_v02.xlsx
@@ -2673,7 +2673,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>22.115334284459077</v>
+        <v>22.115334284459074</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2693,7 +2693,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.26180437329382295</v>
+        <v>0.26180437329382289</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
